--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BOFMCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BOFMCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>BOFMCA</t>
-  </si>
-  <si>
-    <t>18.079584531648</t>
-  </si>
-  <si>
-    <t>-14.960571191981</t>
-  </si>
-  <si>
-    <t>-38.764001491401</t>
-  </si>
-  <si>
-    <t>16.4532350358165</t>
-  </si>
-  <si>
-    <t>-1.97787683942244</t>
-  </si>
-  <si>
-    <t>5.02053082321106</t>
-  </si>
-  <si>
-    <t>-29.454853842022</t>
-  </si>
-  <si>
-    <t>-7.79840866620344</t>
-  </si>
-  <si>
-    <t>-54.0134468283132</t>
-  </si>
-  <si>
-    <t>-38.9944646517392</t>
-  </si>
-  <si>
-    <t>-32.0015527161347</t>
-  </si>
-  <si>
-    <t>-3.76157516752164</t>
-  </si>
-  <si>
-    <t>3.11189942740168</t>
-  </si>
-  <si>
-    <t>-12.1039830304562</t>
-  </si>
-  <si>
-    <t>4.8428647146423</t>
-  </si>
-  <si>
-    <t>2.47966012957312</t>
-  </si>
-  <si>
-    <t>3.74801694471768</t>
-  </si>
-  <si>
-    <t>-0.825160527306309</t>
-  </si>
-  <si>
-    <t>6.31845780438709</t>
-  </si>
-  <si>
-    <t>-3.84012420625589</t>
-  </si>
-  <si>
-    <t>11.4044059569327</t>
-  </si>
-  <si>
-    <t>-16.4036526659175</t>
-  </si>
-  <si>
-    <t>-10.1665816568173</t>
-  </si>
-  <si>
-    <t>-4.23857766494984</t>
-  </si>
-  <si>
-    <t>22.4156984935235</t>
-  </si>
-  <si>
-    <t>-9.17488516292229</t>
-  </si>
-  <si>
-    <t>-5.10365000912356</t>
-  </si>
-  <si>
-    <t>-8.87836393392331</t>
-  </si>
-  <si>
-    <t>0.894010779379869</t>
-  </si>
-  <si>
-    <t>2.62936426704778</t>
-  </si>
-  <si>
-    <t>-2.78421692172702</t>
-  </si>
-  <si>
-    <t>-20.6965862982934</t>
-  </si>
-  <si>
-    <t>-19.2004470503554</t>
-  </si>
-  <si>
-    <t>-21.5271575697614</t>
-  </si>
-  <si>
-    <t>3.77279320147505</t>
-  </si>
-  <si>
-    <t>-0.943753578165456</t>
-  </si>
-  <si>
-    <t>1.41241452122273</t>
-  </si>
-  <si>
-    <t>-7.73237637940565</t>
-  </si>
-  <si>
-    <t>-8.38949841053181</t>
-  </si>
-  <si>
-    <t>6.12599012072303</t>
-  </si>
-  <si>
-    <t>14.2318216753521</t>
-  </si>
-  <si>
-    <t>-13.0927953993692</t>
-  </si>
-  <si>
-    <t>10.1687210331469</t>
-  </si>
-  <si>
-    <t>-11.3588945999393</t>
-  </si>
-  <si>
-    <t>11.816420901999</t>
-  </si>
-  <si>
-    <t>-4.81166271953629</t>
-  </si>
-  <si>
-    <t>-9.57516135948828</t>
-  </si>
-  <si>
-    <t>8.23794867934373</t>
-  </si>
-  <si>
-    <t>-8.43517704985737</t>
-  </si>
-  <si>
-    <t>6.97384523685537</t>
-  </si>
-  <si>
-    <t>-5.03560462628343</t>
-  </si>
-  <si>
-    <t>-0.440254944273875</t>
-  </si>
-  <si>
-    <t>-4.25970085660259</t>
-  </si>
-  <si>
-    <t>0.394755225320012</t>
-  </si>
-  <si>
-    <t>3.82268822362755</t>
-  </si>
-  <si>
-    <t>9.72295178800755</t>
-  </si>
-  <si>
-    <t>-10.1170056057097</t>
-  </si>
-  <si>
-    <t>7.07084127536928</t>
-  </si>
-  <si>
-    <t>6.28512377427916</t>
-  </si>
-  <si>
-    <t>-1.27531455490282</t>
-  </si>
-  <si>
-    <t>-13.6733200751111</t>
-  </si>
-  <si>
-    <t>11.3195853899187</t>
-  </si>
-  <si>
-    <t>1.84366233193356</t>
-  </si>
-  <si>
-    <t>-1.83725429343139</t>
-  </si>
-  <si>
-    <t>4.86051938964681</t>
-  </si>
-  <si>
-    <t>7.55747090415298</t>
-  </si>
-  <si>
-    <t>-3.96143023092702</t>
-  </si>
-  <si>
-    <t>-2.05053507713416</t>
-  </si>
-  <si>
-    <t>-9.57961633767553</t>
-  </si>
-  <si>
-    <t>16.4111419698479</t>
-  </si>
-  <si>
-    <t>-5.86371447288684</t>
-  </si>
-  <si>
-    <t>12.1389396842281</t>
-  </si>
-  <si>
-    <t>-19.1294066834436</t>
-  </si>
-  <si>
-    <t>19.3887583519808</t>
-  </si>
-  <si>
-    <t>12.6403403362393</t>
-  </si>
-  <si>
-    <t>8.50765273325248</t>
-  </si>
-  <si>
-    <t>-11.3072056658865</t>
-  </si>
-  <si>
-    <t>-83.4323196478322</t>
-  </si>
-  <si>
-    <t>72.4327501195659</t>
-  </si>
-  <si>
-    <t>32.7508518486367</t>
-  </si>
-  <si>
-    <t>1.70462630565135</t>
-  </si>
-  <si>
-    <t>27.3165532080061</t>
-  </si>
-  <si>
-    <t>3.91029835276436</t>
-  </si>
-  <si>
-    <t>33.9154275409568</t>
+    <t>1.51722966261627</t>
+  </si>
+  <si>
+    <t>-96.3603445403046</t>
+  </si>
+  <si>
+    <t>-99.5382310205869</t>
+  </si>
+  <si>
+    <t>120.09410230934</t>
+  </si>
+  <si>
+    <t>55.146858899556</t>
+  </si>
+  <si>
+    <t>-45.154494280129</t>
+  </si>
+  <si>
+    <t>203.488696007617</t>
+  </si>
+  <si>
+    <t>-107.281145964463</t>
+  </si>
+  <si>
+    <t>35.6419089577278</t>
+  </si>
+  <si>
+    <t>19.8637371995983</t>
+  </si>
+  <si>
+    <t>-146.729584728126</t>
+  </si>
+  <si>
+    <t>141.57442433343</t>
+  </si>
+  <si>
+    <t>219.270121321857</t>
+  </si>
+  <si>
+    <t>-185.466636940377</t>
+  </si>
+  <si>
+    <t>-42.7441995660356</t>
+  </si>
+  <si>
+    <t>1.85143982767477</t>
+  </si>
+  <si>
+    <t>-93.2957400832033</t>
+  </si>
+  <si>
+    <t>183.003246417813</t>
+  </si>
+  <si>
+    <t>198.579582103924</t>
+  </si>
+  <si>
+    <t>151.586695529425</t>
+  </si>
+  <si>
+    <t>98.7587228489983</t>
+  </si>
+  <si>
+    <t>-106.968826064488</t>
+  </si>
+  <si>
+    <t>-375.883663804647</t>
+  </si>
+  <si>
+    <t>-36.8573811884257</t>
+  </si>
+  <si>
+    <t>157.538602565578</t>
+  </si>
+  <si>
+    <t>23.4289169816466</t>
+  </si>
+  <si>
+    <t>116.494853842342</t>
+  </si>
+  <si>
+    <t>-401.384006715048</t>
+  </si>
+  <si>
+    <t>199.7090557364</t>
+  </si>
+  <si>
+    <t>-517.574404181182</t>
+  </si>
+  <si>
+    <t>-44.726218811131</t>
+  </si>
+  <si>
+    <t>-207.737496797082</t>
+  </si>
+  <si>
+    <t>-191.08126089493</t>
+  </si>
+  <si>
+    <t>-114.990181326926</t>
+  </si>
+  <si>
+    <t>-65.4870032402771</t>
+  </si>
+  <si>
+    <t>-45.0452519568619</t>
+  </si>
+  <si>
+    <t>-70.3873975867837</t>
+  </si>
+  <si>
+    <t>55.5143208682789</t>
+  </si>
+  <si>
+    <t>22.4276843910188</t>
+  </si>
+  <si>
+    <t>-16.4949101061879</t>
+  </si>
+  <si>
+    <t>-0.198536690216088</t>
+  </si>
+  <si>
+    <t>16.2971690698419</t>
+  </si>
+  <si>
+    <t>-17.1345199189452</t>
+  </si>
+  <si>
+    <t>-22.1256948598711</t>
+  </si>
+  <si>
+    <t>-86.824971627658</t>
+  </si>
+  <si>
+    <t>-78.9336244897493</t>
+  </si>
+  <si>
+    <t>7.32086739572492</t>
+  </si>
+  <si>
+    <t>-34.3984341142359</t>
+  </si>
+  <si>
+    <t>-130.18500036473</t>
+  </si>
+  <si>
+    <t>-88.7026090125535</t>
+  </si>
+  <si>
+    <t>2.66139872327358</t>
+  </si>
+  <si>
+    <t>-37.792263347734</t>
+  </si>
+  <si>
+    <t>10.7873985578076</t>
+  </si>
+  <si>
+    <t>-40.5485281844785</t>
+  </si>
+  <si>
+    <t>34.8929761715515</t>
+  </si>
+  <si>
+    <t>44.6374755016755</t>
+  </si>
+  <si>
+    <t>67.2502869342488</t>
+  </si>
+  <si>
+    <t>-56.2508405439323</t>
+  </si>
+  <si>
+    <t>104.223366760407</t>
+  </si>
+  <si>
+    <t>-185.151125196326</t>
+  </si>
+  <si>
+    <t>162.188227343923</t>
+  </si>
+  <si>
+    <t>-98.9330747561758</t>
+  </si>
+  <si>
+    <t>3.8604130413446</t>
+  </si>
+  <si>
+    <t>-244.09761355707</t>
+  </si>
+  <si>
+    <t>122.571986954819</t>
+  </si>
+  <si>
+    <t>-114.21657484456</t>
+  </si>
+  <si>
+    <t>-34.795122214312</t>
+  </si>
+  <si>
+    <t>-104.020314352503</t>
+  </si>
+  <si>
+    <t>49.0671907757721</t>
+  </si>
+  <si>
+    <t>62.7672484795141</t>
+  </si>
+  <si>
+    <t>-13.4955155613388</t>
+  </si>
+  <si>
+    <t>-84.5748134230425</t>
+  </si>
+  <si>
+    <t>-16.7160359344878</t>
+  </si>
+  <si>
+    <t>2.63408048434326</t>
+  </si>
+  <si>
+    <t>18.4410336904166</t>
+  </si>
+  <si>
+    <t>-143.823421068386</t>
+  </si>
+  <si>
+    <t>355.140036343275</t>
+  </si>
+  <si>
+    <t>714.534730021199</t>
+  </si>
+  <si>
+    <t>51.2738818117027</t>
+  </si>
+  <si>
+    <t>-95.6748398045697</t>
+  </si>
+  <si>
+    <t>937.724455063059</t>
+  </si>
+  <si>
+    <t>-171.375969657176</t>
+  </si>
+  <si>
+    <t>-340.37631154522</t>
+  </si>
+  <si>
+    <t>488.958644779747</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
